--- a/docs/excel/PalaceMapMasterLevels.xlsx
+++ b/docs/excel/PalaceMapMasterLevels.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
   </bookViews>
   <sheets>
-    <sheet name="PalaceMap" sheetId="1" r:id="rId1"/>
+    <sheet name="PalaceMapMasterLevels" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TableName: "PalaceMap" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ListSpliter:";"</t>
   </si>
   <si>
@@ -570,6 +566,10 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "PalaceMapMasterLevels" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1037,16 +1037,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -1059,16 +1059,16 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -1090,16 +1090,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="10">
         <v>6400</v>
@@ -1138,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="10">
         <v>3200</v>
@@ -1158,7 +1158,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="10">
         <v>3000</v>
@@ -1178,7 +1178,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="10">
         <v>6400</v>
@@ -1198,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="10">
         <v>3200</v>
@@ -1218,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="10">
         <v>3000</v>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="10">
         <v>6400</v>
@@ -1258,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="10">
         <v>3200</v>
@@ -1278,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="10">
         <v>3000</v>
@@ -1298,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="10">
         <v>6400</v>
@@ -1318,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="10">
         <v>3200</v>
@@ -1338,7 +1338,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="10">
         <v>3000</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="10">
         <v>6400</v>
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="10">
         <v>3200</v>
@@ -1398,7 +1398,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="10">
         <v>3000</v>
@@ -1418,7 +1418,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="10">
         <v>6400</v>
@@ -1438,7 +1438,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="10">
         <v>3200</v>
@@ -2530,7 +2530,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2542,7 +2542,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/docs/excel/PalaceMapMasterLevels.xlsx
+++ b/docs/excel/PalaceMapMasterLevels.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -106,54 +106,6 @@
       <t>001_1;1002_2</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <r>
@@ -572,12 +524,106 @@
     <t>TableName: "PalaceMapMasterLevels" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>品级名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>001_1;1002_19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1001_5;1002_3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1001_10;1002_4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -668,13 +714,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1014,69 +1060,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,531 +1136,579 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="10">
-        <v>6400</v>
-      </c>
-      <c r="F5" s="9"/>
+      <c r="E5" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="10">
-        <v>3200</v>
-      </c>
-      <c r="F6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="10">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="10">
-        <v>6400</v>
-      </c>
-      <c r="F8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C9" s="6">
         <v>5</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="10">
-        <v>3200</v>
-      </c>
-      <c r="F9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C10" s="6">
         <v>6</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="10">
-        <v>3000</v>
-      </c>
-      <c r="F10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="10">
-        <v>6400</v>
-      </c>
-      <c r="F11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3600</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="10">
-        <v>3200</v>
-      </c>
-      <c r="F12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="9">
+        <v>3600</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C13" s="6">
         <v>3</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="10">
-        <v>3000</v>
-      </c>
-      <c r="F13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3600</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C14" s="6">
         <v>4</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="10">
-        <v>6400</v>
-      </c>
-      <c r="F14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3600</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C15" s="6">
         <v>5</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="10">
-        <v>3200</v>
-      </c>
-      <c r="F15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="9">
+        <v>3600</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C16" s="6">
         <v>6</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="10">
-        <v>3000</v>
-      </c>
-      <c r="F16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="9">
+        <v>3600</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="10">
-        <v>6400</v>
-      </c>
-      <c r="F17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="9">
+        <v>5400</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="10">
-        <v>3200</v>
-      </c>
-      <c r="F18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="9">
+        <v>5400</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C19" s="6">
         <v>3</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="10">
-        <v>3000</v>
-      </c>
-      <c r="F19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="9">
+        <v>5400</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C20" s="6">
         <v>4</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="10">
-        <v>6400</v>
-      </c>
-      <c r="F20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="9">
+        <v>5400</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" s="1">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C21" s="6">
         <v>5</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="10">
-        <v>3200</v>
-      </c>
-      <c r="F21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="9">
+        <v>5400</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="H21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>39</v>
+      </c>
+      <c r="C22" s="6">
+        <v>6</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="9">
+        <v>5400</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="8"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="16.5">
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="7"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5">
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="7"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="16.5">
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="7"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5">
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="7"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5">
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="7"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="16.5">
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="16.5">
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:13" ht="16.5">
+    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="7"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" s="8"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:13" ht="16.5">
+    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" s="8"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="8"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="8"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" s="8"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="8"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" s="8"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1621,896 +1720,896 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
@@ -2526,26 +2625,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2571,7 +2670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/PalaceMapMasterLevels.xlsx
+++ b/docs/excel/PalaceMapMasterLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -92,356 +92,6 @@
   <si>
     <t>升级消耗道具</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <t>MasterId</t>
@@ -561,16 +211,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>10001_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>001_1;1002_19</t>
+      <t>10001_5</t>
     </r>
     <r>
       <rPr>
@@ -583,10 +229,11 @@
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>1001_5;1002_3</t>
+      <t>10001_10</t>
     </r>
     <r>
       <rPr>
@@ -602,8 +249,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>10001_50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>1001_10;1002_4</t>
+      <t>10001_1</t>
     </r>
     <r>
       <rPr>
@@ -616,6 +275,26 @@
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_240</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_500</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1064,7 +743,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1084,19 +763,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -1108,19 +787,19 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1141,19 +820,19 @@
         <v>19</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1171,13 +850,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E5" s="9">
         <v>1800</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H5" s="6"/>
       <c r="J5" s="6"/>
@@ -1193,13 +872,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E6" s="9">
         <v>1800</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H6" s="6"/>
       <c r="J6" s="6"/>
@@ -1215,13 +894,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E7" s="9">
         <v>1800</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H7" s="6"/>
       <c r="J7" s="6"/>
@@ -1237,13 +916,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E8" s="9">
         <v>1800</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H8" s="6"/>
       <c r="J8" s="6"/>
@@ -1259,13 +938,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E9" s="9">
         <v>1800</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H9" s="6"/>
       <c r="J9" s="6"/>
@@ -1281,13 +960,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E10" s="9">
         <v>1800</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H10" s="6"/>
       <c r="J10" s="6"/>
@@ -1303,13 +982,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E11" s="9">
         <v>3600</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H11" s="6"/>
       <c r="J11" s="6"/>
@@ -1325,13 +1004,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E12" s="9">
         <v>3600</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H12" s="6"/>
       <c r="J12" s="6"/>
@@ -1347,13 +1026,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E13" s="9">
         <v>3600</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H13" s="6"/>
       <c r="J13" s="6"/>
@@ -1369,13 +1048,13 @@
         <v>4</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E14" s="9">
         <v>3600</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H14" s="6"/>
       <c r="J14" s="6"/>
@@ -1391,13 +1070,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E15" s="9">
         <v>3600</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H15" s="6"/>
       <c r="J15" s="6"/>
@@ -1413,13 +1092,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E16" s="9">
         <v>3600</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H16" s="6"/>
       <c r="J16" s="6"/>
@@ -1435,13 +1114,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E17" s="9">
         <v>5400</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H17" s="6"/>
       <c r="J17" s="6"/>
@@ -1457,13 +1136,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E18" s="9">
         <v>5400</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H18" s="6"/>
       <c r="J18" s="6"/>
@@ -1479,13 +1158,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E19" s="9">
         <v>5400</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H19" s="6"/>
       <c r="J19" s="6"/>
@@ -1501,13 +1180,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E20" s="9">
         <v>5400</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H20" s="6"/>
       <c r="J20" s="6"/>
@@ -1523,13 +1202,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E21" s="9">
         <v>5400</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H21" s="6"/>
       <c r="J21" s="6"/>
@@ -1545,13 +1224,13 @@
         <v>6</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E22" s="9">
         <v>5400</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2641,7 +2320,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/PalaceMapMasterLevels.xlsx
+++ b/docs/excel/PalaceMapMasterLevels.xlsx
@@ -743,7 +743,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -853,7 +853,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="9">
-        <v>1800</v>
+        <v>30</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>35</v>
@@ -875,7 +875,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="9">
-        <v>1800</v>
+        <v>30</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>36</v>
@@ -897,7 +897,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="9">
-        <v>1800</v>
+        <v>30</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>37</v>
@@ -919,7 +919,7 @@
         <v>44</v>
       </c>
       <c r="E8" s="9">
-        <v>1800</v>
+        <v>30</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>38</v>
@@ -941,7 +941,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="9">
-        <v>1800</v>
+        <v>30</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>39</v>
@@ -963,7 +963,7 @@
         <v>46</v>
       </c>
       <c r="E10" s="9">
-        <v>1800</v>
+        <v>30</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>40</v>
@@ -985,7 +985,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="9">
-        <v>3600</v>
+        <v>30</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>35</v>
@@ -1007,7 +1007,7 @@
         <v>48</v>
       </c>
       <c r="E12" s="9">
-        <v>3600</v>
+        <v>30</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>36</v>
@@ -1029,7 +1029,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="9">
-        <v>3600</v>
+        <v>30</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>37</v>
@@ -1051,7 +1051,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="9">
-        <v>3600</v>
+        <v>30</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>38</v>
@@ -1073,7 +1073,7 @@
         <v>46</v>
       </c>
       <c r="E15" s="9">
-        <v>3600</v>
+        <v>30</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>39</v>
@@ -1095,7 +1095,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="9">
-        <v>3600</v>
+        <v>30</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>40</v>
@@ -1117,7 +1117,7 @@
         <v>47</v>
       </c>
       <c r="E17" s="9">
-        <v>5400</v>
+        <v>30</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>35</v>
@@ -1139,7 +1139,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="9">
-        <v>5400</v>
+        <v>30</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>36</v>
@@ -1161,7 +1161,7 @@
         <v>49</v>
       </c>
       <c r="E19" s="9">
-        <v>5400</v>
+        <v>30</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>37</v>
@@ -1183,7 +1183,7 @@
         <v>51</v>
       </c>
       <c r="E20" s="9">
-        <v>5400</v>
+        <v>30</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>38</v>
@@ -1205,7 +1205,7 @@
         <v>50</v>
       </c>
       <c r="E21" s="9">
-        <v>5400</v>
+        <v>30</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>39</v>
@@ -1227,7 +1227,7 @@
         <v>52</v>
       </c>
       <c r="E22" s="9">
-        <v>5400</v>
+        <v>30</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>40</v>

--- a/docs/excel/PalaceMapMasterLevels.xlsx
+++ b/docs/excel/PalaceMapMasterLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -295,6 +295,31 @@
   </si>
   <si>
     <t>10001_500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10001_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +768,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -778,7 +803,9 @@
         <v>34</v>
       </c>
       <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
@@ -858,7 +885,9 @@
       <c r="F5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -872,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E6" s="9">
         <v>30</v>
@@ -880,7 +909,9 @@
       <c r="F6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -894,7 +925,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E7" s="9">
         <v>30</v>
@@ -902,7 +933,9 @@
       <c r="F7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -916,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E8" s="9">
         <v>30</v>
@@ -924,7 +957,9 @@
       <c r="F8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -938,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E9" s="9">
         <v>30</v>
@@ -946,7 +981,9 @@
       <c r="F9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -960,7 +997,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E10" s="9">
         <v>30</v>
@@ -968,7 +1005,9 @@
       <c r="F10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -990,7 +1029,9 @@
       <c r="F11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1004,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="9">
         <v>30</v>
@@ -1012,7 +1053,9 @@
       <c r="F12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1026,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="9">
         <v>30</v>
@@ -1034,7 +1077,9 @@
       <c r="F13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1048,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="9">
         <v>30</v>
@@ -1056,7 +1101,9 @@
       <c r="F14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1070,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="9">
         <v>30</v>
@@ -1078,7 +1125,9 @@
       <c r="F15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1092,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" s="9">
         <v>30</v>
@@ -1100,7 +1149,9 @@
       <c r="F16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1122,7 +1173,9 @@
       <c r="F17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1136,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="9">
         <v>30</v>
@@ -1144,7 +1197,9 @@
       <c r="F18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1158,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" s="9">
         <v>30</v>
@@ -1166,7 +1221,9 @@
       <c r="F19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1180,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E20" s="9">
         <v>30</v>
@@ -1188,7 +1245,9 @@
       <c r="F20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1202,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E21" s="9">
         <v>30</v>
@@ -1210,7 +1269,9 @@
       <c r="F21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1224,13 +1285,16 @@
         <v>6</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E22" s="9">
         <v>30</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>40</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">

--- a/docs/excel/PalaceMapMasterLevels.xlsx
+++ b/docs/excel/PalaceMapMasterLevels.xlsx
@@ -768,7 +768,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -919,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6">
         <v>3</v>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6">
         <v>4</v>
@@ -967,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6">
         <v>5</v>
@@ -991,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="6">
         <v>6</v>
@@ -1015,7 +1015,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -1063,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6">
         <v>3</v>
@@ -1087,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="6">
         <v>4</v>
@@ -1111,7 +1111,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="6">
         <v>5</v>
@@ -1135,7 +1135,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="6">
         <v>6</v>

--- a/docs/excel/PalaceMapMasterLevels.xlsx
+++ b/docs/excel/PalaceMapMasterLevels.xlsx
@@ -768,7 +768,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -880,7 +880,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>35</v>
@@ -904,7 +904,7 @@
         <v>54</v>
       </c>
       <c r="E6" s="9">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>36</v>
@@ -928,7 +928,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="9">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>37</v>
@@ -952,7 +952,7 @@
         <v>54</v>
       </c>
       <c r="E8" s="9">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>38</v>
@@ -976,7 +976,7 @@
         <v>54</v>
       </c>
       <c r="E9" s="9">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>39</v>
@@ -1000,7 +1000,7 @@
         <v>54</v>
       </c>
       <c r="E10" s="9">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>40</v>
@@ -1024,7 +1024,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="9">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>35</v>
@@ -1048,7 +1048,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="9">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>36</v>
@@ -1072,7 +1072,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="9">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>37</v>
@@ -1096,7 +1096,7 @@
         <v>47</v>
       </c>
       <c r="E14" s="9">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>38</v>
@@ -1120,7 +1120,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="9">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>39</v>
@@ -1144,7 +1144,7 @@
         <v>47</v>
       </c>
       <c r="E16" s="9">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>40</v>
@@ -1168,7 +1168,7 @@
         <v>47</v>
       </c>
       <c r="E17" s="9">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>35</v>
@@ -1192,7 +1192,7 @@
         <v>47</v>
       </c>
       <c r="E18" s="9">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>36</v>
@@ -1216,7 +1216,7 @@
         <v>47</v>
       </c>
       <c r="E19" s="9">
-        <v>30</v>
+        <v>7200</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>37</v>
@@ -1240,7 +1240,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="9">
-        <v>30</v>
+        <v>7200</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>38</v>
@@ -1264,7 +1264,7 @@
         <v>47</v>
       </c>
       <c r="E21" s="9">
-        <v>30</v>
+        <v>7200</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>39</v>
@@ -1288,7 +1288,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="9">
-        <v>30</v>
+        <v>7200</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>40</v>

--- a/docs/excel/PalaceMapMasterLevels.xlsx
+++ b/docs/excel/PalaceMapMasterLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -302,24 +302,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10001_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10001_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
+    <t>10001_10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -768,7 +767,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -877,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E5" s="9">
         <v>60</v>
@@ -925,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="9">
         <v>1800</v>
@@ -949,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E8" s="9">
         <v>1800</v>
@@ -973,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E9" s="9">
         <v>1800</v>
@@ -996,9 +995,7 @@
       <c r="C10" s="6">
         <v>6</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>1800</v>
       </c>
@@ -1021,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E11" s="9">
         <v>900</v>
@@ -1045,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E12" s="9">
         <v>1800</v>
@@ -1069,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E13" s="9">
         <v>3600</v>
@@ -1093,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E14" s="9">
         <v>3600</v>
@@ -1117,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E15" s="9">
         <v>3600</v>
@@ -1140,9 +1137,7 @@
       <c r="C16" s="6">
         <v>6</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="9">
         <v>3600</v>
       </c>
@@ -1165,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E17" s="9">
         <v>1800</v>
@@ -1189,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E18" s="9">
         <v>3600</v>
@@ -1213,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E19" s="9">
         <v>7200</v>
@@ -1237,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E20" s="9">
         <v>7200</v>
@@ -1261,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E21" s="9">
         <v>7200</v>
@@ -1284,9 +1279,7 @@
       <c r="C22" s="6">
         <v>6</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="9">
         <v>7200</v>
       </c>

--- a/docs/excel/PalaceMapMasterLevels.xlsx
+++ b/docs/excel/PalaceMapMasterLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -306,19 +306,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>10001_30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>10001_5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10001_30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_50</t>
+    <t>10001_150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_33</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +404,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +415,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9BBB59"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -395,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,6 +468,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,7 +826,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -876,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" s="9">
         <v>60</v>
@@ -924,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="9">
         <v>1800</v>
@@ -948,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="9">
         <v>1800</v>
@@ -972,7 +1031,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="9">
         <v>1800</v>
@@ -1008,143 +1067,149 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="16">
         <v>7</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="12">
         <v>40</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="13">
         <v>1</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="14">
         <v>900</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="16">
         <v>8</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="12">
         <v>40</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="13">
         <v>2</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="14">
         <v>1800</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="16">
         <v>9</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="12">
         <v>40</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="13">
         <v>3</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="D13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="14">
         <v>3600</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="14" t="s">
         <v>49</v>
       </c>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="16">
         <v>10</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="12">
         <v>40</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="13">
         <v>4</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="14">
         <v>3600</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="16">
         <v>11</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="12">
         <v>40</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="13">
         <v>5</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="14">
         <v>3600</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="16"/>
+      <c r="H15" s="14" t="s">
         <v>46</v>
       </c>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="16">
         <v>12</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="12">
         <v>40</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="13">
         <v>6</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14">
         <v>3600</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="14" t="s">
         <v>50</v>
       </c>
       <c r="J16" s="6"/>
@@ -1160,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E17" s="9">
         <v>1800</v>
@@ -1184,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E18" s="9">
         <v>3600</v>
@@ -1208,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E19" s="9">
         <v>7200</v>
@@ -1232,7 +1297,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E20" s="9">
         <v>7200</v>
@@ -1256,7 +1321,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E21" s="9">
         <v>7200</v>

--- a/docs/excel/PalaceMapMasterLevels.xlsx
+++ b/docs/excel/PalaceMapMasterLevels.xlsx
@@ -826,7 +826,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -938,7 +938,7 @@
         <v>58</v>
       </c>
       <c r="E5" s="9">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>35</v>
@@ -962,7 +962,7 @@
         <v>54</v>
       </c>
       <c r="E6" s="9">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>36</v>
@@ -986,7 +986,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="9">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>37</v>
@@ -1010,7 +1010,7 @@
         <v>57</v>
       </c>
       <c r="E8" s="9">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>38</v>
@@ -1034,7 +1034,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="9">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>39</v>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>40</v>
@@ -1080,7 +1080,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="14">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>35</v>
@@ -1105,7 +1105,7 @@
         <v>63</v>
       </c>
       <c r="E12" s="14">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>36</v>
@@ -1130,7 +1130,7 @@
         <v>64</v>
       </c>
       <c r="E13" s="14">
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>37</v>
@@ -1155,7 +1155,7 @@
         <v>59</v>
       </c>
       <c r="E14" s="14">
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>38</v>
@@ -1180,7 +1180,7 @@
         <v>60</v>
       </c>
       <c r="E15" s="14">
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>39</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14">
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>40</v>
@@ -1228,7 +1228,7 @@
         <v>66</v>
       </c>
       <c r="E17" s="9">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>35</v>
@@ -1252,7 +1252,7 @@
         <v>67</v>
       </c>
       <c r="E18" s="9">
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>36</v>

--- a/docs/excel/PalaceMapMasterLevels.xlsx
+++ b/docs/excel/PalaceMapMasterLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>贵人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>嫔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -359,6 +355,58 @@
   </si>
   <si>
     <t>10001_33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴贵人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴嫔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴皇贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴皇后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高嫔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高皇贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高皇后</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -826,7 +874,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -862,7 +910,7 @@
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -935,16 +983,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="9">
         <v>300</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="6"/>
     </row>
@@ -959,16 +1007,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="9">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -983,16 +1031,16 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="9">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -1007,16 +1055,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="9">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -1031,16 +1079,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="9">
         <v>3600</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="6"/>
     </row>
@@ -1059,10 +1107,10 @@
         <v>3600</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -1077,17 +1125,17 @@
         <v>1</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="14">
-        <v>1800</v>
+        <v>450</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="6"/>
     </row>
@@ -1102,17 +1150,17 @@
         <v>2</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="14">
-        <v>3600</v>
+        <v>900</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12" s="6"/>
     </row>
@@ -1127,17 +1175,17 @@
         <v>3</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="14">
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -1152,17 +1200,17 @@
         <v>4</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="14">
-        <v>5400</v>
+        <v>2700</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -1177,17 +1225,17 @@
         <v>5</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="14">
         <v>5400</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -1203,14 +1251,14 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J16" s="6"/>
     </row>
@@ -1225,16 +1273,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="9">
-        <v>3600</v>
+        <v>600</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -1249,16 +1297,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="9">
-        <v>5400</v>
+        <v>1200</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="6"/>
     </row>
@@ -1273,16 +1321,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="9">
-        <v>7200</v>
+        <v>2400</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19" s="6"/>
     </row>
@@ -1297,16 +1345,16 @@
         <v>4</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="9">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" s="6"/>
     </row>
@@ -1321,16 +1369,16 @@
         <v>5</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="9">
         <v>7200</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21" s="6"/>
     </row>
@@ -1346,13 +1394,13 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">

--- a/docs/excel/PalaceMapMasterLevels.xlsx
+++ b/docs/excel/PalaceMapMasterLevels.xlsx
@@ -874,7 +874,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -1025,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C7" s="6">
         <v>3</v>
@@ -1049,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6">
         <v>4</v>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6">
         <v>5</v>
@@ -1097,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6">
         <v>6</v>
@@ -1119,7 +1119,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C11" s="13">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="12">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C12" s="13">
         <v>2</v>
@@ -1169,7 +1169,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="12">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C13" s="13">
         <v>3</v>
@@ -1194,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="12">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C14" s="13">
         <v>4</v>
@@ -1219,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="12">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C15" s="13">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="12">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C16" s="13">
         <v>6</v>
@@ -1267,7 +1267,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -1291,7 +1291,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
@@ -1315,7 +1315,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C19" s="6">
         <v>3</v>
@@ -1339,7 +1339,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C20" s="6">
         <v>4</v>
@@ -1363,7 +1363,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C21" s="6">
         <v>5</v>
@@ -1387,7 +1387,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C22" s="6">
         <v>6</v>

--- a/docs/excel/PalaceMapMasterLevels.xlsx
+++ b/docs/excel/PalaceMapMasterLevels.xlsx
@@ -10,12 +10,12 @@
     <sheet name="PalaceMapMasterLevels" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -298,51 +298,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>贵人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴贵人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴嫔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴皇贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴皇后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高嫔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高皇贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高皇后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>10001_10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10001_30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10001_5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10001_150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_250</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_6</t>
+    <t>10001_20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单日产量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -350,63 +390,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10001_13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_33</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>娴贵人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>娴嫔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>娴妃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>娴贵妃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>娴皇贵妃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>娴皇后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高贵人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高嫔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高妃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高贵妃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高皇贵妃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高皇后</t>
+    <t>10001_15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,6 +521,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -874,7 +869,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -912,8 +907,12 @@
       <c r="H1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -983,18 +982,20 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E5" s="9">
         <v>300</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1007,18 +1008,20 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E6" s="9">
         <v>600</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1031,18 +1034,20 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E7" s="9">
         <v>1200</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1055,18 +1060,20 @@
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E8" s="9">
         <v>1800</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1079,18 +1086,20 @@
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E9" s="9">
         <v>3600</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1107,12 +1116,15 @@
         <v>3600</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="J10" s="6">
+        <f>SUM(J5:J9)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
@@ -1125,19 +1137,24 @@
         <v>1</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E11" s="14">
         <v>450</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="I11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
@@ -1150,19 +1167,25 @@
         <v>2</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12" s="14">
         <v>900</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="I12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="6">
+        <f>J10/J11</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
@@ -1175,13 +1198,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E13" s="14">
         <v>1800</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="14" t="s">
@@ -1200,13 +1223,13 @@
         <v>4</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E14" s="14">
         <v>2700</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="14" t="s">
@@ -1225,13 +1248,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E15" s="14">
         <v>5400</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="14" t="s">
@@ -1254,7 +1277,7 @@
         <v>10800</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="14" t="s">
@@ -1272,14 +1295,14 @@
       <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>65</v>
+      <c r="D17" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="E17" s="9">
         <v>600</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>46</v>
@@ -1296,7 +1319,7 @@
       <c r="C18" s="6">
         <v>2</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="17" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="9">
@@ -1320,8 +1343,8 @@
       <c r="C19" s="6">
         <v>3</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>67</v>
+      <c r="D19" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="E19" s="9">
         <v>2400</v>
@@ -1344,8 +1367,8 @@
       <c r="C20" s="6">
         <v>4</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>60</v>
+      <c r="D20" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="E20" s="9">
         <v>3600</v>
@@ -1368,8 +1391,8 @@
       <c r="C21" s="6">
         <v>5</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>61</v>
+      <c r="D21" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="E21" s="9">
         <v>7200</v>

--- a/docs/excel/PalaceMapMasterLevels.xlsx
+++ b/docs/excel/PalaceMapMasterLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -187,26 +187,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>嫔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>妃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵妃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇贵妃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10001_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -298,107 +278,151 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>娴贵人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴嫔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴皇贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴皇后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高嫔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高皇贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高皇后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单日产量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉贵人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉嫔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉皇贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉皇后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>贵人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>娴贵人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>娴嫔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>娴妃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>娴贵妃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>娴皇贵妃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>娴皇后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高贵人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高嫔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高妃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高贵妃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高皇贵妃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高皇后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_45</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单日产量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
+    <t>嫔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇贵妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -869,7 +893,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -905,13 +929,13 @@
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -976,22 +1000,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E5" s="9">
         <v>300</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
@@ -1002,22 +1026,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E6" s="9">
         <v>600</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J6" s="6">
         <v>2</v>
@@ -1028,22 +1052,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="6">
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E7" s="9">
         <v>1200</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J7" s="6">
         <v>7</v>
@@ -1054,22 +1078,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="6">
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E8" s="9">
         <v>1800</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J8" s="6">
         <v>15</v>
@@ -1080,22 +1104,22 @@
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="6">
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E9" s="9">
         <v>3600</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J9" s="6">
         <v>25</v>
@@ -1106,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="6">
         <v>6</v>
@@ -1116,10 +1140,10 @@
         <v>3600</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J10" s="6">
         <f>SUM(J5:J9)</f>
@@ -1137,20 +1161,20 @@
         <v>1</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E11" s="14">
         <v>450</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J11" s="6">
         <v>5</v>
@@ -1167,20 +1191,20 @@
         <v>2</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E12" s="14">
         <v>900</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J12" s="6">
         <f>J10/J11</f>
@@ -1198,17 +1222,17 @@
         <v>3</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E13" s="14">
         <v>1800</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -1223,17 +1247,17 @@
         <v>4</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E14" s="14">
         <v>2700</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -1248,17 +1272,17 @@
         <v>5</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E15" s="14">
         <v>5400</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -1277,11 +1301,11 @@
         <v>10800</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J16" s="6"/>
     </row>
@@ -1290,22 +1314,22 @@
         <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E17" s="9">
         <v>600</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -1314,22 +1338,22 @@
         <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E18" s="9">
         <v>1200</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J18" s="6"/>
     </row>
@@ -1338,22 +1362,22 @@
         <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="6">
         <v>3</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E19" s="9">
         <v>2400</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J19" s="6"/>
     </row>
@@ -1362,22 +1386,22 @@
         <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" s="6">
         <v>4</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E20" s="9">
         <v>3600</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J20" s="6"/>
     </row>
@@ -1386,22 +1410,22 @@
         <v>17</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" s="6">
         <v>5</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E21" s="9">
         <v>7200</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J21" s="6"/>
     </row>
@@ -1410,7 +1434,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="6">
         <v>6</v>
@@ -1420,53 +1444,147 @@
         <v>14400</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="H22" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="9">
+        <v>600</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1200</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6">
+        <v>3</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2400</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3600</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="H26" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6">
+        <v>5</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="9">
+        <v>7200</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="6">
+        <v>6</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9">
+        <v>14400</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29"/>

--- a/docs/excel/PalaceMapMasterLevels.xlsx
+++ b/docs/excel/PalaceMapMasterLevels.xlsx
@@ -893,7 +893,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1035,7 +1035,7 @@
         <v>68</v>
       </c>
       <c r="E6" s="9">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>74</v>
@@ -1061,7 +1061,7 @@
         <v>69</v>
       </c>
       <c r="E7" s="9">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>75</v>
@@ -1087,7 +1087,7 @@
         <v>70</v>
       </c>
       <c r="E8" s="9">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>76</v>
@@ -1113,7 +1113,7 @@
         <v>71</v>
       </c>
       <c r="E9" s="9">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>77</v>
@@ -1136,8 +1136,8 @@
         <v>6</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9">
-        <v>3600</v>
+      <c r="E10" s="14">
+        <v>10800</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>78</v>
@@ -1163,8 +1163,8 @@
       <c r="D11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="14">
-        <v>450</v>
+      <c r="E11" s="9">
+        <v>300</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>54</v>
@@ -1193,7 +1193,7 @@
       <c r="D12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="9">
         <v>900</v>
       </c>
       <c r="F12" s="15" t="s">
@@ -1224,7 +1224,7 @@
       <c r="D13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="9">
         <v>1800</v>
       </c>
       <c r="F13" s="15" t="s">
@@ -1249,8 +1249,8 @@
       <c r="D14" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="14">
-        <v>2700</v>
+      <c r="E14" s="9">
+        <v>3600</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>57</v>
@@ -1274,8 +1274,8 @@
       <c r="D15" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="14">
-        <v>5400</v>
+      <c r="E15" s="9">
+        <v>7200</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>58</v>
@@ -1323,7 +1323,7 @@
         <v>61</v>
       </c>
       <c r="E17" s="9">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>79</v>
@@ -1347,7 +1347,7 @@
         <v>60</v>
       </c>
       <c r="E18" s="9">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>80</v>
@@ -1371,7 +1371,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="9">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>81</v>
@@ -1440,8 +1440,8 @@
         <v>6</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>14400</v>
+      <c r="E22" s="14">
+        <v>10800</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>84</v>
@@ -1464,7 +1464,7 @@
         <v>42</v>
       </c>
       <c r="E23" s="9">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>48</v>
@@ -1487,7 +1487,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="9">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>49</v>
@@ -1510,7 +1510,7 @@
         <v>62</v>
       </c>
       <c r="E25" s="9">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>50</v>
@@ -1576,8 +1576,8 @@
         <v>6</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="9">
-        <v>14400</v>
+      <c r="E28" s="14">
+        <v>10800</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>53</v>
